--- a/dataExcel/【AK-47 _ 翡翠细条纹 (破损不堪)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47 _ 翡翠细条纹 (破损不堪)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 12:31:29</v>
+        <v>2023-09-19 03:01:55</v>
       </c>
       <c r="B8">
-        <v>34.9</v>
+        <v>32.9</v>
       </c>
       <c r="C8">
-        <v>37.96</v>
+        <v>40.17</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0.02</v>
@@ -449,27 +449,27 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 17:55:38</v>
+        <v>2023-09-19 08:10:03</v>
       </c>
       <c r="B9">
-        <v>34.79</v>
+        <v>32.9</v>
       </c>
       <c r="C9">
-        <v>37.96</v>
+        <v>40.17</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0.02</v>
@@ -478,27 +478,27 @@
         <v>0.01</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 23:16:14</v>
+        <v>2023-09-19 13:20:01</v>
       </c>
       <c r="B10">
-        <v>34.35</v>
+        <v>34.4</v>
       </c>
       <c r="C10">
-        <v>37.96</v>
+        <v>40.17</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0.02</v>
@@ -507,27 +507,27 @@
         <v>0.01</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 04:28:11</v>
+        <v>2023-09-19 18:30:00</v>
       </c>
       <c r="B11">
-        <v>34.35</v>
+        <v>35.79</v>
       </c>
       <c r="C11">
-        <v>41.34</v>
+        <v>40.17</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -536,27 +536,27 @@
         <v>0.01</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 09:43:11</v>
+        <v>2023-09-19 23:42:52</v>
       </c>
       <c r="B12">
-        <v>34.25</v>
+        <v>35.79</v>
       </c>
       <c r="C12">
-        <v>41.34</v>
+        <v>40.17</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -568,24 +568,24 @@
         <v>27</v>
       </c>
       <c r="H12">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 14:50:57</v>
+        <v>2023-09-20 04:52:52</v>
       </c>
       <c r="B13">
-        <v>34.24</v>
+        <v>35.79</v>
       </c>
       <c r="C13">
-        <v>41.34</v>
+        <v>38.47</v>
       </c>
       <c r="D13">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -594,27 +594,27 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 19:59:40</v>
+        <v>2023-09-20 10:01:18</v>
       </c>
       <c r="B14">
-        <v>33.99</v>
+        <v>35.79</v>
       </c>
       <c r="C14">
-        <v>41.34</v>
+        <v>38.47</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>0.02</v>
@@ -623,27 +623,27 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 01:10:32</v>
+        <v>2023-09-20 15:11:38</v>
       </c>
       <c r="B15">
-        <v>33.99</v>
+        <v>35.5</v>
       </c>
       <c r="C15">
-        <v>41.34</v>
+        <v>38.47</v>
       </c>
       <c r="D15">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0.02</v>
@@ -652,10 +652,10 @@
         <v>0.01</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -663,16 +663,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 06:19:34</v>
+        <v>2023-09-20 20:20:36</v>
       </c>
       <c r="B16">
-        <v>33.99</v>
+        <v>35.7</v>
       </c>
       <c r="C16">
-        <v>39.72</v>
+        <v>38.47</v>
       </c>
       <c r="D16">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>0.02</v>
@@ -684,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="H16">
-        <v>31.3</v>
+        <v>31.9</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 11:29:34</v>
+        <v>2023-09-21 01:34:37</v>
       </c>
       <c r="B17">
-        <v>33.65</v>
+        <v>36.1</v>
       </c>
       <c r="C17">
-        <v>39.72</v>
+        <v>38.47</v>
       </c>
       <c r="D17">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>0.02</v>
@@ -710,27 +710,27 @@
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 16:40:31</v>
+        <v>2023-09-21 06:43:22</v>
       </c>
       <c r="B18">
-        <v>33.6</v>
+        <v>36.1</v>
       </c>
       <c r="C18">
-        <v>39.72</v>
+        <v>38.35</v>
       </c>
       <c r="D18">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <v>0.02</v>
@@ -739,27 +739,27 @@
         <v>0.01</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 21:51:55</v>
+        <v>2023-09-21 11:52:44</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>36.4</v>
       </c>
       <c r="C19">
-        <v>39.72</v>
+        <v>38.35</v>
       </c>
       <c r="D19">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <v>0.02</v>
@@ -768,27 +768,27 @@
         <v>0.01</v>
       </c>
       <c r="G19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 03:01:55</v>
+        <v>2023-09-21 17:02:38</v>
       </c>
       <c r="B20">
-        <v>32.9</v>
+        <v>36.29</v>
       </c>
       <c r="C20">
-        <v>40.17</v>
+        <v>38.35</v>
       </c>
       <c r="D20">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>0.02</v>
@@ -797,27 +797,27 @@
         <v>0.01</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>31.1</v>
+        <v>32.5</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 08:10:03</v>
+        <v>2023-09-21 22:12:38</v>
       </c>
       <c r="B21">
-        <v>32.9</v>
+        <v>36.19</v>
       </c>
       <c r="C21">
-        <v>40.17</v>
+        <v>38.35</v>
       </c>
       <c r="D21">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>0.02</v>
@@ -826,27 +826,27 @@
         <v>0.01</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>31.1</v>
+        <v>33</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 13:20:01</v>
+        <v>2023-09-22 03:23:52</v>
       </c>
       <c r="B22">
-        <v>34.4</v>
+        <v>36.1</v>
       </c>
       <c r="C22">
-        <v>40.17</v>
+        <v>38.86</v>
       </c>
       <c r="D22">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>0.02</v>
@@ -858,24 +858,24 @@
         <v>26</v>
       </c>
       <c r="H22">
-        <v>31.1</v>
+        <v>33</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 18:30:00</v>
+        <v>2023-09-22 08:32:45</v>
       </c>
       <c r="B23">
-        <v>35.79</v>
+        <v>36.1</v>
       </c>
       <c r="C23">
-        <v>40.17</v>
+        <v>38.86</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>0.02</v>
@@ -887,21 +887,21 @@
         <v>26</v>
       </c>
       <c r="H23">
-        <v>31.1</v>
+        <v>33</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 23:42:52</v>
+        <v>2023-09-22 13:42:45</v>
       </c>
       <c r="B24">
         <v>35.79</v>
       </c>
       <c r="C24">
-        <v>40.17</v>
+        <v>38.86</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -910,245 +910,245 @@
         <v>0.02</v>
       </c>
       <c r="F24">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 04:52:52</v>
+        <v>2023-09-22 18:52:43</v>
       </c>
       <c r="B25">
-        <v>35.79</v>
+        <v>35.4</v>
       </c>
       <c r="C25">
-        <v>38.47</v>
+        <v>38.86</v>
       </c>
       <c r="D25">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>0.02</v>
       </c>
       <c r="F25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 10:01:18</v>
+        <v>2023-09-23 00:02:42</v>
       </c>
       <c r="B26">
-        <v>35.79</v>
+        <v>35.69</v>
       </c>
       <c r="C26">
-        <v>38.47</v>
+        <v>38.86</v>
       </c>
       <c r="D26">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>0.02</v>
       </c>
       <c r="F26">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 15:11:38</v>
+        <v>2023-09-23 05:12:40</v>
       </c>
       <c r="B27">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>38.47</v>
+        <v>38.68</v>
       </c>
       <c r="D27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>0.02</v>
       </c>
       <c r="F27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>31.7</v>
+        <v>33</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 20:20:36</v>
+        <v>2023-09-23 10:22:39</v>
       </c>
       <c r="B28">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>38.47</v>
+        <v>38.68</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <v>0.02</v>
       </c>
       <c r="F28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 01:34:37</v>
+        <v>2023-09-23 15:34:20</v>
       </c>
       <c r="B29">
-        <v>36.1</v>
+        <v>35.89</v>
       </c>
       <c r="C29">
-        <v>38.47</v>
+        <v>38.68</v>
       </c>
       <c r="D29">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>0.02</v>
       </c>
       <c r="F29">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 06:43:22</v>
+        <v>2023-09-23 20:43:10</v>
       </c>
       <c r="B30">
-        <v>36.1</v>
+        <v>35.49</v>
       </c>
       <c r="C30">
-        <v>38.35</v>
+        <v>38.68</v>
       </c>
       <c r="D30">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>0.02</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 11:52:44</v>
+        <v>2023-09-24 01:52:56</v>
       </c>
       <c r="B31">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>38.35</v>
+        <v>38.68</v>
       </c>
       <c r="D31">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 17:02:38</v>
+        <v>2023-09-24 07:02:56</v>
       </c>
       <c r="B32">
-        <v>36.29</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>38.35</v>
+        <v>39.13</v>
       </c>
       <c r="D32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>0.02</v>
       </c>
       <c r="F32">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 22:12:38</v>
+        <v>2023-09-24 12:16:51</v>
       </c>
       <c r="B33">
-        <v>36.19</v>
+        <v>35.9</v>
       </c>
       <c r="C33">
-        <v>38.35</v>
+        <v>39.13</v>
       </c>
       <c r="D33">
         <v>87</v>
@@ -1171,13 +1171,13 @@
         <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <v>12</v>
@@ -1185,173 +1185,173 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 03:23:52</v>
+        <v>2023-09-24 17:23:54</v>
       </c>
       <c r="B34">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C34">
-        <v>38.86</v>
+        <v>39.13</v>
       </c>
       <c r="D34">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 08:32:45</v>
+        <v>2023-09-24 22:33:52</v>
       </c>
       <c r="B35">
-        <v>36.1</v>
+        <v>35.69</v>
       </c>
       <c r="C35">
-        <v>38.86</v>
+        <v>39.13</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>33</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 13:42:45</v>
+        <v>2023-09-25 03:43:51</v>
       </c>
       <c r="B36">
-        <v>35.79</v>
+        <v>35.7</v>
       </c>
       <c r="C36">
-        <v>38.86</v>
+        <v>40.1</v>
       </c>
       <c r="D36">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <v>33</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 18:52:43</v>
+        <v>2023-09-25 08:54:02</v>
       </c>
       <c r="B37">
-        <v>35.4</v>
+        <v>35.79</v>
       </c>
       <c r="C37">
-        <v>38.86</v>
+        <v>40.1</v>
       </c>
       <c r="D37">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 00:02:42</v>
+        <v>2023-09-25 14:04:00</v>
       </c>
       <c r="B38">
-        <v>35.69</v>
+        <v>35.79</v>
       </c>
       <c r="C38">
-        <v>38.86</v>
+        <v>40.1</v>
       </c>
       <c r="D38">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>33</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 05:12:40</v>
+        <v>2023-09-25 19:15:10</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>35.79</v>
       </c>
       <c r="C39">
-        <v>38.68</v>
+        <v>40.1</v>
       </c>
       <c r="D39">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F39">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G39">
         <v>25</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I39">
         <v>12</v>
@@ -1359,28 +1359,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 10:22:39</v>
+        <v>2023-09-26 00:24:09</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>35.79</v>
       </c>
       <c r="C40">
-        <v>38.68</v>
+        <v>40.1</v>
       </c>
       <c r="D40">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G40">
         <v>26</v>
       </c>
       <c r="H40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I40">
         <v>12</v>
@@ -1388,141 +1388,141 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 15:34:20</v>
+        <v>2023-09-26 05:35:19</v>
       </c>
       <c r="B41">
-        <v>35.89</v>
+        <v>35.79</v>
       </c>
       <c r="C41">
-        <v>38.68</v>
+        <v>40.95</v>
       </c>
       <c r="D41">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 20:43:10</v>
+        <v>2023-09-26 10:44:17</v>
       </c>
       <c r="B42">
-        <v>35.49</v>
+        <v>35.79</v>
       </c>
       <c r="C42">
-        <v>38.68</v>
+        <v>40.95</v>
       </c>
       <c r="D42">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I42">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 01:52:56</v>
+        <v>2023-09-26 15:54:16</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>35.79</v>
       </c>
       <c r="C43">
-        <v>38.68</v>
+        <v>40.95</v>
       </c>
       <c r="D43">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H43">
         <v>34</v>
       </c>
       <c r="I43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 07:02:56</v>
+        <v>2023-09-26 21:04:42</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="C44">
-        <v>39.13</v>
+        <v>40.95</v>
       </c>
       <c r="D44">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F44">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H44">
         <v>34</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 12:16:51</v>
+        <v>2023-09-27 02:15:51</v>
       </c>
       <c r="B45">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="C45">
-        <v>39.13</v>
+        <v>41.27</v>
       </c>
       <c r="D45">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>34</v>
@@ -1533,42 +1533,42 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 17:23:54</v>
+        <v>2023-09-27 07:24:32</v>
       </c>
       <c r="B46">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="C46">
-        <v>39.13</v>
+        <v>41.27</v>
       </c>
       <c r="D46">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H46">
         <v>34</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 22:33:52</v>
+        <v>2023-09-27 12:34:57</v>
       </c>
       <c r="B47">
-        <v>35.69</v>
+        <v>35.7</v>
       </c>
       <c r="C47">
-        <v>39.13</v>
+        <v>41.27</v>
       </c>
       <c r="D47">
         <v>89</v>
@@ -1577,30 +1577,30 @@
         <v>0.01</v>
       </c>
       <c r="F47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G47">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 03:43:51</v>
+        <v>2023-09-27 17:44:36</v>
       </c>
       <c r="B48">
-        <v>35.7</v>
+        <v>34.9</v>
       </c>
       <c r="C48">
-        <v>40.1</v>
+        <v>41.27</v>
       </c>
       <c r="D48">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E48">
         <v>0.01</v>
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I48">
         <v>13</v>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 08:54:02</v>
+        <v>2023-09-27 22:55:04</v>
       </c>
       <c r="B49">
-        <v>35.79</v>
+        <v>33.6</v>
       </c>
       <c r="C49">
-        <v>40.1</v>
+        <v>41.27</v>
       </c>
       <c r="D49">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <v>0.01</v>
@@ -1641,24 +1641,24 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 14:04:00</v>
+        <v>2023-09-28 04:06:29</v>
       </c>
       <c r="B50">
-        <v>35.79</v>
+        <v>34.79</v>
       </c>
       <c r="C50">
-        <v>40.1</v>
+        <v>40.88</v>
       </c>
       <c r="D50">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E50">
         <v>0.01</v>
@@ -1670,21 +1670,21 @@
         <v>26</v>
       </c>
       <c r="H50">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 19:15:10</v>
+        <v>2023-09-28 09:14:51</v>
       </c>
       <c r="B51">
-        <v>35.79</v>
+        <v>35.6</v>
       </c>
       <c r="C51">
-        <v>40.1</v>
+        <v>40.88</v>
       </c>
       <c r="D51">
         <v>87</v>
@@ -1696,27 +1696,27 @@
         <v>0.01</v>
       </c>
       <c r="G51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51">
-        <v>34</v>
+        <v>33.1</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 00:24:09</v>
+        <v>2023-09-28 14:26:02</v>
       </c>
       <c r="B52">
-        <v>35.79</v>
+        <v>35.5</v>
       </c>
       <c r="C52">
-        <v>40.1</v>
+        <v>40.88</v>
       </c>
       <c r="D52">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52">
         <v>0.01</v>
@@ -1728,24 +1728,24 @@
         <v>26</v>
       </c>
       <c r="H52">
-        <v>34</v>
+        <v>33.1</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 05:35:19</v>
+        <v>2023-09-28 19:34:59</v>
       </c>
       <c r="B53">
-        <v>35.79</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>40.95</v>
+        <v>40.88</v>
       </c>
       <c r="D53">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <v>0.01</v>
@@ -1754,27 +1754,27 @@
         <v>0.01</v>
       </c>
       <c r="G53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 10:44:17</v>
+        <v>2023-09-29 00:47:10</v>
       </c>
       <c r="B54">
-        <v>35.79</v>
+        <v>35.7</v>
       </c>
       <c r="C54">
-        <v>40.95</v>
+        <v>40.88</v>
       </c>
       <c r="D54">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <v>0.01</v>
@@ -1783,27 +1783,27 @@
         <v>0.01</v>
       </c>
       <c r="G54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 15:54:16</v>
+        <v>2023-09-29 05:56:30</v>
       </c>
       <c r="B55">
-        <v>35.79</v>
+        <v>35.7</v>
       </c>
       <c r="C55">
-        <v>40.95</v>
+        <v>38.86</v>
       </c>
       <c r="D55">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55">
         <v>0.01</v>
@@ -1815,21 +1815,21 @@
         <v>26</v>
       </c>
       <c r="H55">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 21:04:42</v>
+        <v>2023-09-29 11:06:50</v>
       </c>
       <c r="B56">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="C56">
-        <v>40.95</v>
+        <v>38.86</v>
       </c>
       <c r="D56">
         <v>93</v>
@@ -1844,24 +1844,24 @@
         <v>26</v>
       </c>
       <c r="H56">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 02:15:51</v>
+        <v>2023-09-29 16:15:37</v>
       </c>
       <c r="B57">
-        <v>35.5</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>41.27</v>
+        <v>38.86</v>
       </c>
       <c r="D57">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E57">
         <v>0.01</v>
@@ -1873,24 +1873,24 @@
         <v>26</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>28.5</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 07:24:32</v>
+        <v>2023-09-29 21:25:46</v>
       </c>
       <c r="B58">
-        <v>35.5</v>
+        <v>33</v>
       </c>
       <c r="C58">
-        <v>41.27</v>
+        <v>38.86</v>
       </c>
       <c r="D58">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58">
         <v>0.01</v>
@@ -1902,24 +1902,24 @@
         <v>26</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>28.5</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 12:34:57</v>
+        <v>2023-09-30 02:36:41</v>
       </c>
       <c r="B59">
-        <v>35.7</v>
+        <v>32.9</v>
       </c>
       <c r="C59">
-        <v>41.27</v>
+        <v>36.79</v>
       </c>
       <c r="D59">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E59">
         <v>0.01</v>
@@ -1931,21 +1931,21 @@
         <v>26</v>
       </c>
       <c r="H59">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I59">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 17:44:36</v>
+        <v>2023-09-30 07:46:41</v>
       </c>
       <c r="B60">
-        <v>34.9</v>
+        <v>32.9</v>
       </c>
       <c r="C60">
-        <v>41.27</v>
+        <v>36.79</v>
       </c>
       <c r="D60">
         <v>97</v>
@@ -1960,24 +1960,24 @@
         <v>26</v>
       </c>
       <c r="H60">
-        <v>34</v>
+        <v>23.1</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 22:55:04</v>
+        <v>2023-09-30 12:56:40</v>
       </c>
       <c r="B61">
-        <v>33.6</v>
+        <v>32.7</v>
       </c>
       <c r="C61">
-        <v>41.27</v>
+        <v>36.79</v>
       </c>
       <c r="D61">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E61">
         <v>0.01</v>
@@ -1989,24 +1989,24 @@
         <v>26</v>
       </c>
       <c r="H61">
-        <v>33.1</v>
+        <v>23.1</v>
       </c>
       <c r="I61">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 04:06:29</v>
+        <v>2023-09-30 18:00:26</v>
       </c>
       <c r="B62">
-        <v>34.79</v>
+        <v>30</v>
       </c>
       <c r="C62">
-        <v>40.88</v>
+        <v>36.79</v>
       </c>
       <c r="D62">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E62">
         <v>0.01</v>
@@ -2018,24 +2018,24 @@
         <v>26</v>
       </c>
       <c r="H62">
-        <v>33.1</v>
+        <v>23.3</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 09:14:51</v>
+        <v>2023-09-30 23:10:25</v>
       </c>
       <c r="B63">
-        <v>35.6</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>40.88</v>
+        <v>36.79</v>
       </c>
       <c r="D63">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -2044,27 +2044,27 @@
         <v>0.01</v>
       </c>
       <c r="G63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63">
-        <v>33.1</v>
+        <v>23.6</v>
       </c>
       <c r="I63">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 14:26:02</v>
+        <v>2023-10-01 04:22:44</v>
       </c>
       <c r="B64">
-        <v>35.5</v>
+        <v>29.9</v>
       </c>
       <c r="C64">
-        <v>40.88</v>
+        <v>34.71</v>
       </c>
       <c r="D64">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -2076,24 +2076,24 @@
         <v>26</v>
       </c>
       <c r="H64">
-        <v>33.1</v>
+        <v>23.7</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 19:34:59</v>
+        <v>2023-10-01 09:30:31</v>
       </c>
       <c r="B65">
-        <v>35</v>
+        <v>29.9</v>
       </c>
       <c r="C65">
-        <v>40.88</v>
+        <v>34.71</v>
       </c>
       <c r="D65">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.01</v>
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="H65">
-        <v>33</v>
+        <v>23.7</v>
       </c>
       <c r="I65">
         <v>7</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 00:47:10</v>
+        <v>2023-10-01 14:40:30</v>
       </c>
       <c r="B66">
-        <v>35.7</v>
+        <v>29.6</v>
       </c>
       <c r="C66">
-        <v>40.88</v>
+        <v>34.71</v>
       </c>
       <c r="D66">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E66">
         <v>0.01</v>
@@ -2134,24 +2134,24 @@
         <v>25</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>23.8</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 05:56:30</v>
+        <v>2023-10-01 19:50:30</v>
       </c>
       <c r="B67">
-        <v>35.7</v>
+        <v>29.5</v>
       </c>
       <c r="C67">
-        <v>38.86</v>
+        <v>34.71</v>
       </c>
       <c r="D67">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E67">
         <v>0.01</v>
@@ -2160,27 +2160,27 @@
         <v>0.01</v>
       </c>
       <c r="G67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 11:06:50</v>
+        <v>2023-10-02 01:00:30</v>
       </c>
       <c r="B68">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="C68">
-        <v>38.86</v>
+        <v>34.71</v>
       </c>
       <c r="D68">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E68">
         <v>0.01</v>
@@ -2189,27 +2189,27 @@
         <v>0.01</v>
       </c>
       <c r="G68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68">
-        <v>33</v>
+        <v>24.1</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 16:15:37</v>
+        <v>2023-10-02 06:10:29</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>29.5</v>
       </c>
       <c r="C69">
-        <v>38.86</v>
+        <v>33.02</v>
       </c>
       <c r="D69">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E69">
         <v>0.01</v>
@@ -2218,27 +2218,27 @@
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69">
-        <v>28.5</v>
+        <v>24.1</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 21:25:46</v>
+        <v>2023-10-02 11:21:58</v>
       </c>
       <c r="B70">
-        <v>33</v>
+        <v>29.4</v>
       </c>
       <c r="C70">
-        <v>38.86</v>
+        <v>33.02</v>
       </c>
       <c r="D70">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E70">
         <v>0.01</v>
@@ -2247,27 +2247,27 @@
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70">
-        <v>28.5</v>
+        <v>24.2</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 02:36:41</v>
+        <v>2023-10-02 16:35:22</v>
       </c>
       <c r="B71">
-        <v>32.9</v>
+        <v>28.99</v>
       </c>
       <c r="C71">
-        <v>36.79</v>
+        <v>33.02</v>
       </c>
       <c r="D71">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E71">
         <v>0.01</v>
@@ -2276,27 +2276,27 @@
         <v>0.01</v>
       </c>
       <c r="G71">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>24.4</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 07:46:41</v>
+        <v>2023-10-02 21:41:54</v>
       </c>
       <c r="B72">
-        <v>32.9</v>
+        <v>28.61</v>
       </c>
       <c r="C72">
-        <v>36.79</v>
+        <v>33.02</v>
       </c>
       <c r="D72">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E72">
         <v>0.01</v>
@@ -2305,27 +2305,27 @@
         <v>0.01</v>
       </c>
       <c r="G72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H72">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 12:56:40</v>
+        <v>2023-10-03 02:50:47</v>
       </c>
       <c r="B73">
-        <v>32.7</v>
+        <v>28.41</v>
       </c>
       <c r="C73">
-        <v>36.79</v>
+        <v>35.15</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -2334,27 +2334,27 @@
         <v>0.01</v>
       </c>
       <c r="G73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73">
-        <v>23.1</v>
+        <v>26</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 18:00:26</v>
+        <v>2023-10-03 08:01:42</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>28.41</v>
       </c>
       <c r="C74">
-        <v>36.79</v>
+        <v>35.15</v>
       </c>
       <c r="D74">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>0.01</v>
@@ -2363,27 +2363,27 @@
         <v>0.01</v>
       </c>
       <c r="G74">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 23:10:25</v>
+        <v>2023-10-03 13:13:08</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>28.31</v>
       </c>
       <c r="C75">
-        <v>36.79</v>
+        <v>35.15</v>
       </c>
       <c r="D75">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>0.01</v>
@@ -2392,27 +2392,27 @@
         <v>0.01</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H75">
-        <v>23.6</v>
+        <v>26.5</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 04:22:44</v>
+        <v>2023-10-03 18:23:51</v>
       </c>
       <c r="B76">
-        <v>29.9</v>
+        <v>28.31</v>
       </c>
       <c r="C76">
-        <v>34.71</v>
+        <v>35.15</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>0.01</v>
@@ -2421,27 +2421,27 @@
         <v>0.01</v>
       </c>
       <c r="G76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76">
-        <v>23.7</v>
+        <v>26.5</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 09:30:31</v>
+        <v>2023-10-03 23:31:35</v>
       </c>
       <c r="B77">
-        <v>29.9</v>
+        <v>28.11</v>
       </c>
       <c r="C77">
-        <v>34.71</v>
+        <v>35.15</v>
       </c>
       <c r="D77">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E77">
         <v>0.01</v>
@@ -2450,27 +2450,27 @@
         <v>0.01</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H77">
-        <v>23.7</v>
+        <v>26.5</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 14:40:30</v>
+        <v>2023-10-04 04:41:22</v>
       </c>
       <c r="B78">
-        <v>29.6</v>
+        <v>28.11</v>
       </c>
       <c r="C78">
-        <v>34.71</v>
+        <v>33.22</v>
       </c>
       <c r="D78">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E78">
         <v>0.01</v>
@@ -2479,24 +2479,24 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>23.8</v>
+        <v>26</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 19:50:30</v>
+        <v>2023-10-04 09:51:22</v>
       </c>
       <c r="B79">
-        <v>29.5</v>
+        <v>28.11</v>
       </c>
       <c r="C79">
-        <v>34.71</v>
+        <v>33.22</v>
       </c>
       <c r="D79">
         <v>109</v>
@@ -2508,10 +2508,10 @@
         <v>0.01</v>
       </c>
       <c r="G79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I79">
         <v>9</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 01:00:30</v>
+        <v>2023-10-04 15:02:49</v>
       </c>
       <c r="B80">
-        <v>29.5</v>
+        <v>27.88</v>
       </c>
       <c r="C80">
-        <v>34.71</v>
+        <v>33.22</v>
       </c>
       <c r="D80">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E80">
         <v>0.01</v>
@@ -2537,27 +2537,27 @@
         <v>0.01</v>
       </c>
       <c r="G80">
+        <v>28</v>
+      </c>
+      <c r="H80">
         <v>25</v>
       </c>
-      <c r="H80">
-        <v>24.1</v>
-      </c>
       <c r="I80">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 06:10:29</v>
+        <v>2023-10-04 20:14:13</v>
       </c>
       <c r="B81">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="C81">
-        <v>33.02</v>
+        <v>33.22</v>
       </c>
       <c r="D81">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E81">
         <v>0.01</v>
@@ -2566,27 +2566,27 @@
         <v>0.01</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H81">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 11:21:58</v>
+        <v>2023-10-05 01:25:11</v>
       </c>
       <c r="B82">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="C82">
-        <v>33.02</v>
+        <v>33.22</v>
       </c>
       <c r="D82">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E82">
         <v>0.01</v>
@@ -2595,27 +2595,27 @@
         <v>0.01</v>
       </c>
       <c r="G82">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H82">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="I82">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 16:35:22</v>
+        <v>2023-10-05 06:31:45</v>
       </c>
       <c r="B83">
-        <v>28.99</v>
+        <v>28</v>
       </c>
       <c r="C83">
-        <v>33.02</v>
+        <v>33.09</v>
       </c>
       <c r="D83">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83">
         <v>0.01</v>
@@ -2630,21 +2630,21 @@
         <v>24.4</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 21:41:54</v>
+        <v>2023-10-05 11:42:09</v>
       </c>
       <c r="B84">
-        <v>28.61</v>
+        <v>27.9</v>
       </c>
       <c r="C84">
-        <v>33.02</v>
+        <v>33.09</v>
       </c>
       <c r="D84">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E84">
         <v>0.01</v>
@@ -2656,24 +2656,24 @@
         <v>27</v>
       </c>
       <c r="H84">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="I84">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 02:50:47</v>
+        <v>2023-10-05 16:52:44</v>
       </c>
       <c r="B85">
-        <v>28.41</v>
+        <v>26.8</v>
       </c>
       <c r="C85">
-        <v>35.15</v>
+        <v>33.09</v>
       </c>
       <c r="D85">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>0.01</v>
@@ -2685,24 +2685,24 @@
         <v>27</v>
       </c>
       <c r="H85">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 08:01:42</v>
+        <v>2023-10-05 22:03:15</v>
       </c>
       <c r="B86">
-        <v>28.41</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>35.15</v>
+        <v>33.09</v>
       </c>
       <c r="D86">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E86">
         <v>0.01</v>
@@ -2711,30 +2711,30 @@
         <v>0.01</v>
       </c>
       <c r="G86">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H86">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="I86">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 13:13:08</v>
+        <v>2023-10-06 03:14:03</v>
       </c>
       <c r="B87">
-        <v>28.31</v>
+        <v>25.9</v>
       </c>
       <c r="C87">
-        <v>35.15</v>
+        <v>33.09</v>
       </c>
       <c r="D87">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E87">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
         <v>0.01</v>
@@ -2743,27 +2743,27 @@
         <v>27</v>
       </c>
       <c r="H87">
-        <v>26.5</v>
+        <v>24.4</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 18:23:51</v>
+        <v>2023-10-06 08:22:50</v>
       </c>
       <c r="B88">
-        <v>28.31</v>
+        <v>25.9</v>
       </c>
       <c r="C88">
-        <v>35.15</v>
+        <v>33.09</v>
       </c>
       <c r="D88">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E88">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F88">
         <v>0.01</v>
@@ -2772,27 +2772,27 @@
         <v>27</v>
       </c>
       <c r="H88">
-        <v>26.5</v>
+        <v>24.4</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 23:31:35</v>
+        <v>2023-10-06 13:33:38</v>
       </c>
       <c r="B89">
-        <v>28.11</v>
+        <v>26.8</v>
       </c>
       <c r="C89">
-        <v>35.15</v>
+        <v>33.09</v>
       </c>
       <c r="D89">
         <v>110</v>
       </c>
       <c r="E89">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
         <v>0.01</v>
@@ -2801,56 +2801,56 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>26.5</v>
+        <v>24.3</v>
       </c>
       <c r="I89">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 04:41:22</v>
+        <v>2023-10-06 18:42:27</v>
       </c>
       <c r="B90">
-        <v>28.11</v>
+        <v>28</v>
       </c>
       <c r="C90">
-        <v>33.22</v>
+        <v>33.09</v>
       </c>
       <c r="D90">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F90">
         <v>0.01</v>
       </c>
       <c r="G90">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 09:51:22</v>
+        <v>2023-10-06 23:53:02</v>
       </c>
       <c r="B91">
-        <v>28.11</v>
+        <v>27.8</v>
       </c>
       <c r="C91">
-        <v>33.22</v>
+        <v>33.09</v>
       </c>
       <c r="D91">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F91">
         <v>0.01</v>
@@ -2859,111 +2859,111 @@
         <v>29</v>
       </c>
       <c r="H91">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="I91">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 15:02:49</v>
+        <v>2023-10-07 05:03:38</v>
       </c>
       <c r="B92">
-        <v>27.88</v>
+        <v>27.5</v>
       </c>
       <c r="C92">
-        <v>33.22</v>
+        <v>33.15</v>
       </c>
       <c r="D92">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E92">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F92">
         <v>0.01</v>
       </c>
       <c r="G92">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="I92">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 20:14:13</v>
+        <v>2023-10-07 10:12:48</v>
       </c>
       <c r="B93">
-        <v>26</v>
+        <v>27.1</v>
       </c>
       <c r="C93">
-        <v>33.22</v>
+        <v>33.15</v>
       </c>
       <c r="D93">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E93">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F93">
         <v>0.01</v>
       </c>
       <c r="G93">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H93">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 01:25:11</v>
+        <v>2023-10-07 15:23:14</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="C94">
-        <v>33.22</v>
+        <v>33.15</v>
       </c>
       <c r="D94">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E94">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F94">
         <v>0.01</v>
       </c>
       <c r="G94">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>24.4</v>
+        <v>25.3</v>
       </c>
       <c r="I94">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 06:31:45</v>
+        <v>2023-10-07 20:33:28</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="C95">
-        <v>33.09</v>
+        <v>33.15</v>
       </c>
       <c r="D95">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E95">
         <v>0.01</v>
@@ -2972,27 +2972,27 @@
         <v>0.01</v>
       </c>
       <c r="G95">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>24.4</v>
+        <v>25.5</v>
       </c>
       <c r="I95">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 11:42:09</v>
+        <v>2023-10-08 01:43:03</v>
       </c>
       <c r="B96">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="C96">
-        <v>33.09</v>
+        <v>33.15</v>
       </c>
       <c r="D96">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E96">
         <v>0.01</v>
@@ -3001,27 +3001,27 @@
         <v>0.01</v>
       </c>
       <c r="G96">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>24.4</v>
+        <v>25.6</v>
       </c>
       <c r="I96">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 16:52:44</v>
+        <v>2023-10-08 06:53:38</v>
       </c>
       <c r="B97">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C97">
-        <v>33.09</v>
+        <v>33.4</v>
       </c>
       <c r="D97">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E97">
         <v>0.01</v>
@@ -3030,56 +3030,56 @@
         <v>0.01</v>
       </c>
       <c r="G97">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>24.4</v>
+        <v>25.6</v>
       </c>
       <c r="I97">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 22:03:15</v>
+        <v>2023-10-08 12:04:34</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C98">
-        <v>33.09</v>
+        <v>33.4</v>
       </c>
       <c r="D98">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E98">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F98">
         <v>0.01</v>
       </c>
       <c r="G98">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>24.4</v>
+        <v>25.6</v>
       </c>
       <c r="I98">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 03:14:03</v>
+        <v>2023-10-08 17:14:00</v>
       </c>
       <c r="B99">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="C99">
-        <v>33.09</v>
+        <v>33.4</v>
       </c>
       <c r="D99">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E99">
         <v>0.02</v>
@@ -3088,24 +3088,24 @@
         <v>0.01</v>
       </c>
       <c r="G99">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>24.4</v>
+        <v>26</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 08:22:50</v>
+        <v>2023-10-08 22:24:09</v>
       </c>
       <c r="B100">
-        <v>25.9</v>
+        <v>28.8</v>
       </c>
       <c r="C100">
-        <v>33.09</v>
+        <v>33.4</v>
       </c>
       <c r="D100">
         <v>111</v>
@@ -3117,27 +3117,27 @@
         <v>0.01</v>
       </c>
       <c r="G100">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>24.4</v>
+        <v>26.1</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 13:33:38</v>
+        <v>2023-10-09 03:33:40</v>
       </c>
       <c r="B101">
-        <v>26.8</v>
+        <v>29.99</v>
       </c>
       <c r="C101">
-        <v>33.09</v>
+        <v>34</v>
       </c>
       <c r="D101">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E101">
         <v>0.02</v>
@@ -3146,27 +3146,27 @@
         <v>0.01</v>
       </c>
       <c r="G101">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 18:42:27</v>
+        <v>2023-10-09 08:43:40</v>
       </c>
       <c r="B102">
-        <v>28</v>
+        <v>29.99</v>
       </c>
       <c r="C102">
-        <v>33.09</v>
+        <v>34</v>
       </c>
       <c r="D102">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E102">
         <v>0.02</v>
@@ -3175,27 +3175,27 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>25</v>
+        <v>26.3</v>
       </c>
       <c r="I102">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 23:53:02</v>
+        <v>2023-10-09 13:53:39</v>
       </c>
       <c r="B103">
-        <v>27.8</v>
+        <v>29.89</v>
       </c>
       <c r="C103">
-        <v>33.09</v>
+        <v>34</v>
       </c>
       <c r="D103">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E103">
         <v>0.02</v>
@@ -3204,27 +3204,27 @@
         <v>0.01</v>
       </c>
       <c r="G103">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>25.1</v>
+        <v>26.4</v>
       </c>
       <c r="I103">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 05:03:38</v>
+        <v>2023-10-09 19:03:39</v>
       </c>
       <c r="B104">
-        <v>27.5</v>
+        <v>29.78</v>
       </c>
       <c r="C104">
-        <v>33.15</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E104">
         <v>0.02</v>
@@ -3233,27 +3233,27 @@
         <v>0.01</v>
       </c>
       <c r="G104">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="I104">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 10:12:48</v>
+        <v>2023-10-10 00:15:30</v>
       </c>
       <c r="B105">
-        <v>27.1</v>
+        <v>29.8</v>
       </c>
       <c r="C105">
-        <v>33.15</v>
+        <v>34</v>
       </c>
       <c r="D105">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E105">
         <v>0.02</v>
@@ -3262,27 +3262,27 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>25.2</v>
+        <v>27</v>
       </c>
       <c r="I105">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 15:23:14</v>
+        <v>2023-10-10 05:23:47</v>
       </c>
       <c r="B106">
-        <v>26.9</v>
+        <v>29.87</v>
       </c>
       <c r="C106">
-        <v>33.15</v>
+        <v>35.43</v>
       </c>
       <c r="D106">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E106">
         <v>0.02</v>
@@ -3291,59 +3291,59 @@
         <v>0.01</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>25.3</v>
+        <v>27</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 20:33:28</v>
+        <v>2023-10-10 10:33:47</v>
       </c>
       <c r="B107">
-        <v>26.9</v>
+        <v>30.19</v>
       </c>
       <c r="C107">
-        <v>33.15</v>
+        <v>35.43</v>
       </c>
       <c r="D107">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E107">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F107">
         <v>0.01</v>
       </c>
       <c r="G107">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="I107">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 01:43:03</v>
+        <v>2023-10-10 15:44:03</v>
       </c>
       <c r="B108">
-        <v>26.7</v>
+        <v>29.8</v>
       </c>
       <c r="C108">
-        <v>33.15</v>
+        <v>35.43</v>
       </c>
       <c r="D108">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E108">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F108">
         <v>0.01</v>
@@ -3352,27 +3352,27 @@
         <v>32</v>
       </c>
       <c r="H108">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="I108">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 06:53:38</v>
+        <v>2023-10-10 20:53:55</v>
       </c>
       <c r="B109">
-        <v>26.7</v>
+        <v>29.79</v>
       </c>
       <c r="C109">
-        <v>33.4</v>
+        <v>35.43</v>
       </c>
       <c r="D109">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E109">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F109">
         <v>0.01</v>
@@ -3381,24 +3381,24 @@
         <v>32</v>
       </c>
       <c r="H109">
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="I109">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 12:04:34</v>
+        <v>2023-10-11 02:04:53</v>
       </c>
       <c r="B110">
-        <v>26.5</v>
+        <v>30.09</v>
       </c>
       <c r="C110">
-        <v>33.4</v>
+        <v>36.85</v>
       </c>
       <c r="D110">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E110">
         <v>0.02</v>
@@ -3407,27 +3407,27 @@
         <v>0.01</v>
       </c>
       <c r="G110">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>25.6</v>
+        <v>27.3</v>
       </c>
       <c r="I110">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 17:14:00</v>
+        <v>2023-10-11 07:14:34</v>
       </c>
       <c r="B111">
-        <v>26.6</v>
+        <v>29.99</v>
       </c>
       <c r="C111">
-        <v>33.4</v>
+        <v>36.85</v>
       </c>
       <c r="D111">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E111">
         <v>0.02</v>
@@ -3436,27 +3436,27 @@
         <v>0.01</v>
       </c>
       <c r="G111">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="I111">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 22:24:09</v>
+        <v>2023-10-11 12:24:40</v>
       </c>
       <c r="B112">
-        <v>28.8</v>
+        <v>29.89</v>
       </c>
       <c r="C112">
-        <v>33.4</v>
+        <v>36.85</v>
       </c>
       <c r="D112">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E112">
         <v>0.02</v>
@@ -3468,24 +3468,24 @@
         <v>32</v>
       </c>
       <c r="H112">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="I112">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 03:33:40</v>
+        <v>2023-10-11 17:34:54</v>
       </c>
       <c r="B113">
-        <v>29.99</v>
+        <v>28.9</v>
       </c>
       <c r="C113">
-        <v>34</v>
+        <v>36.85</v>
       </c>
       <c r="D113">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E113">
         <v>0.02</v>
@@ -3497,24 +3497,24 @@
         <v>32</v>
       </c>
       <c r="H113">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="I113">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 08:43:40</v>
+        <v>2023-10-11 22:46:29</v>
       </c>
       <c r="B114">
-        <v>29.99</v>
+        <v>27.39</v>
       </c>
       <c r="C114">
-        <v>34</v>
+        <v>36.85</v>
       </c>
       <c r="D114">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E114">
         <v>0.02</v>
@@ -3523,27 +3523,27 @@
         <v>0.01</v>
       </c>
       <c r="G114">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="I114">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 13:53:39</v>
+        <v>2023-10-12 03:55:05</v>
       </c>
       <c r="B115">
-        <v>29.89</v>
+        <v>27.29</v>
       </c>
       <c r="C115">
-        <v>34</v>
+        <v>35.22</v>
       </c>
       <c r="D115">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E115">
         <v>0.02</v>
@@ -3555,24 +3555,24 @@
         <v>31</v>
       </c>
       <c r="H115">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="I115">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 19:03:39</v>
+        <v>2023-10-12 09:04:39</v>
       </c>
       <c r="B116">
-        <v>29.78</v>
+        <v>27</v>
       </c>
       <c r="C116">
-        <v>34</v>
+        <v>35.22</v>
       </c>
       <c r="D116">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116">
         <v>0.02</v>
@@ -3581,27 +3581,27 @@
         <v>0.01</v>
       </c>
       <c r="G116">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="I116">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 00:15:30</v>
+        <v>2023-10-12 14:14:39</v>
       </c>
       <c r="B117">
-        <v>29.8</v>
+        <v>27.28</v>
       </c>
       <c r="C117">
-        <v>34</v>
+        <v>35.22</v>
       </c>
       <c r="D117">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E117">
         <v>0.02</v>
@@ -3610,27 +3610,27 @@
         <v>0.01</v>
       </c>
       <c r="G117">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="I117">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 05:23:47</v>
+        <v>2023-10-12 19:24:38</v>
       </c>
       <c r="B118">
-        <v>29.87</v>
+        <v>27</v>
       </c>
       <c r="C118">
-        <v>35.43</v>
+        <v>35.22</v>
       </c>
       <c r="D118">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E118">
         <v>0.02</v>
@@ -3639,7 +3639,7 @@
         <v>0.01</v>
       </c>
       <c r="G118">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>27</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 10:33:47</v>
+        <v>2023-10-13 00:34:38</v>
       </c>
       <c r="B119">
-        <v>30.19</v>
+        <v>26.9</v>
       </c>
       <c r="C119">
-        <v>35.43</v>
+        <v>35.22</v>
       </c>
       <c r="D119">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E119">
         <v>0.02</v>
@@ -3668,27 +3668,27 @@
         <v>0.01</v>
       </c>
       <c r="G119">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>27</v>
       </c>
       <c r="I119">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 15:44:03</v>
+        <v>2023-10-13 05:44:38</v>
       </c>
       <c r="B120">
-        <v>29.8</v>
+        <v>26.8</v>
       </c>
       <c r="C120">
-        <v>35.43</v>
+        <v>35.15</v>
       </c>
       <c r="D120">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120">
         <v>0.02</v>
@@ -3700,24 +3700,24 @@
         <v>32</v>
       </c>
       <c r="H120">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="I120">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 20:53:55</v>
+        <v>2023-10-13 10:54:38</v>
       </c>
       <c r="B121">
-        <v>29.79</v>
+        <v>27</v>
       </c>
       <c r="C121">
-        <v>35.43</v>
+        <v>35.15</v>
       </c>
       <c r="D121">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121">
         <v>0.02</v>
@@ -3729,24 +3729,24 @@
         <v>32</v>
       </c>
       <c r="H121">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="I121">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 02:04:53</v>
+        <v>2023-10-13 16:00:04</v>
       </c>
       <c r="B122">
-        <v>30.09</v>
+        <v>26.9</v>
       </c>
       <c r="C122">
-        <v>36.85</v>
+        <v>35.15</v>
       </c>
       <c r="D122">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E122">
         <v>0.02</v>
@@ -3758,24 +3758,24 @@
         <v>32</v>
       </c>
       <c r="H122">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="I122">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 07:14:34</v>
+        <v>2023-10-13 21:10:35</v>
       </c>
       <c r="B123">
-        <v>29.99</v>
+        <v>26.9</v>
       </c>
       <c r="C123">
-        <v>36.85</v>
+        <v>35.15</v>
       </c>
       <c r="D123">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E123">
         <v>0.02</v>
@@ -3784,27 +3784,27 @@
         <v>0.01</v>
       </c>
       <c r="G123">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="I123">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 12:24:40</v>
+        <v>2023-10-14 02:21:19</v>
       </c>
       <c r="B124">
-        <v>29.89</v>
+        <v>27.89</v>
       </c>
       <c r="C124">
-        <v>36.85</v>
+        <v>35.22</v>
       </c>
       <c r="D124">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E124">
         <v>0.02</v>
@@ -3816,24 +3816,24 @@
         <v>32</v>
       </c>
       <c r="H124">
-        <v>27.3</v>
+        <v>25.3</v>
       </c>
       <c r="I124">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 17:34:54</v>
+        <v>2023-10-14 07:31:14</v>
       </c>
       <c r="B125">
-        <v>28.9</v>
+        <v>27.89</v>
       </c>
       <c r="C125">
-        <v>36.85</v>
+        <v>35.22</v>
       </c>
       <c r="D125">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E125">
         <v>0.02</v>
@@ -3845,24 +3845,24 @@
         <v>32</v>
       </c>
       <c r="H125">
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="I125">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 22:46:29</v>
+        <v>2023-10-14 12:40:21</v>
       </c>
       <c r="B126">
-        <v>27.39</v>
+        <v>27.89</v>
       </c>
       <c r="C126">
-        <v>36.85</v>
+        <v>35.22</v>
       </c>
       <c r="D126">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E126">
         <v>0.02</v>
@@ -3871,27 +3871,27 @@
         <v>0.01</v>
       </c>
       <c r="G126">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="I126">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 03:55:05</v>
+        <v>2023-10-14 17:50:21</v>
       </c>
       <c r="B127">
-        <v>27.29</v>
+        <v>27.79</v>
       </c>
       <c r="C127">
         <v>35.22</v>
       </c>
       <c r="D127">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E127">
         <v>0.02</v>
@@ -3903,24 +3903,24 @@
         <v>31</v>
       </c>
       <c r="H127">
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="I127">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 09:04:39</v>
+        <v>2023-10-14 23:00:51</v>
       </c>
       <c r="B128">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128">
         <v>35.22</v>
       </c>
       <c r="D128">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="E128">
         <v>0.02</v>
@@ -3932,24 +3932,24 @@
         <v>31</v>
       </c>
       <c r="H128">
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="I128">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 14:14:39</v>
+        <v>2023-10-15 04:10:29</v>
       </c>
       <c r="B129">
-        <v>27.28</v>
+        <v>28</v>
       </c>
       <c r="C129">
-        <v>35.22</v>
+        <v>35.54</v>
       </c>
       <c r="D129">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="E129">
         <v>0.02</v>
@@ -3961,24 +3961,24 @@
         <v>33</v>
       </c>
       <c r="H129">
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="I129">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 19:24:38</v>
+        <v>2023-10-15 09:21:06</v>
       </c>
       <c r="B130">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C130">
-        <v>35.22</v>
+        <v>35.54</v>
       </c>
       <c r="D130">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E130">
         <v>0.02</v>
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="H130">
-        <v>27</v>
+        <v>25.3</v>
       </c>
       <c r="I130">
         <v>15</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 00:34:38</v>
+        <v>2023-10-15 14:30:37</v>
       </c>
       <c r="B131">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="C131">
-        <v>35.22</v>
+        <v>35.54</v>
       </c>
       <c r="D131">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E131">
         <v>0.02</v>
@@ -4019,24 +4019,24 @@
         <v>33</v>
       </c>
       <c r="H131">
-        <v>27</v>
+        <v>25.4</v>
       </c>
       <c r="I131">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 05:44:38</v>
+        <v>2023-10-15 19:40:37</v>
       </c>
       <c r="B132">
-        <v>26.8</v>
+        <v>29</v>
       </c>
       <c r="C132">
-        <v>35.15</v>
+        <v>35.54</v>
       </c>
       <c r="D132">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E132">
         <v>0.02</v>
@@ -4045,27 +4045,27 @@
         <v>0.01</v>
       </c>
       <c r="G132">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>27</v>
+        <v>25.4</v>
       </c>
       <c r="I132">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 10:54:38</v>
+        <v>2023-10-16 00:50:35</v>
       </c>
       <c r="B133">
         <v>27</v>
       </c>
       <c r="C133">
-        <v>35.15</v>
+        <v>35.54</v>
       </c>
       <c r="D133">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E133">
         <v>0.02</v>
@@ -4074,27 +4074,27 @@
         <v>0.01</v>
       </c>
       <c r="G133">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>27</v>
+        <v>25.4</v>
       </c>
       <c r="I133">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 16:00:04</v>
+        <v>2023-10-16 06:00:35</v>
       </c>
       <c r="B134">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="C134">
-        <v>35.15</v>
+        <v>35.22</v>
       </c>
       <c r="D134">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E134">
         <v>0.02</v>
@@ -4103,27 +4103,27 @@
         <v>0.01</v>
       </c>
       <c r="G134">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>26.1</v>
+        <v>25.4</v>
       </c>
       <c r="I134">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 21:10:35</v>
+        <v>2023-10-16 11:10:35</v>
       </c>
       <c r="B135">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="C135">
-        <v>35.15</v>
+        <v>35.22</v>
       </c>
       <c r="D135">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E135">
         <v>0.02</v>
@@ -4135,24 +4135,24 @@
         <v>33</v>
       </c>
       <c r="H135">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="I135">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 02:21:19</v>
+        <v>2023-10-16 16:20:29</v>
       </c>
       <c r="B136">
-        <v>27.89</v>
+        <v>28.29</v>
       </c>
       <c r="C136">
         <v>35.22</v>
       </c>
       <c r="D136">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E136">
         <v>0.02</v>
@@ -4161,10 +4161,10 @@
         <v>0.01</v>
       </c>
       <c r="G136">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -4172,16 +4172,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 07:31:14</v>
+        <v>2023-10-16 21:30:43</v>
       </c>
       <c r="B137">
-        <v>27.89</v>
+        <v>28.19</v>
       </c>
       <c r="C137">
         <v>35.22</v>
       </c>
       <c r="D137">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E137">
         <v>0.02</v>
@@ -4190,27 +4190,27 @@
         <v>0.01</v>
       </c>
       <c r="G137">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>25.3</v>
+        <v>26.6</v>
       </c>
       <c r="I137">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 12:40:21</v>
+        <v>2023-10-17 02:40:38</v>
       </c>
       <c r="B138">
-        <v>27.89</v>
+        <v>29.69</v>
       </c>
       <c r="C138">
-        <v>35.22</v>
+        <v>36.65</v>
       </c>
       <c r="D138">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E138">
         <v>0.02</v>
@@ -4219,27 +4219,27 @@
         <v>0.01</v>
       </c>
       <c r="G138">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>25.3</v>
+        <v>26.6</v>
       </c>
       <c r="I138">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 17:50:21</v>
+        <v>2023-10-17 07:50:38</v>
       </c>
       <c r="B139">
-        <v>27.79</v>
+        <v>29.69</v>
       </c>
       <c r="C139">
-        <v>35.22</v>
+        <v>36.65</v>
       </c>
       <c r="D139">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E139">
         <v>0.02</v>
@@ -4248,27 +4248,27 @@
         <v>0.01</v>
       </c>
       <c r="G139">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>25.3</v>
+        <v>26.6</v>
       </c>
       <c r="I139">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 23:00:51</v>
+        <v>2023-10-17 13:00:36</v>
       </c>
       <c r="B140">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C140">
-        <v>35.22</v>
+        <v>36.65</v>
       </c>
       <c r="D140">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E140">
         <v>0.02</v>
@@ -4277,27 +4277,27 @@
         <v>0.01</v>
       </c>
       <c r="G140">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>25.3</v>
+        <v>26.6</v>
       </c>
       <c r="I140">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 04:10:29</v>
+        <v>2023-10-17 18:10:34</v>
       </c>
       <c r="B141">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C141">
-        <v>35.54</v>
+        <v>36.65</v>
       </c>
       <c r="D141">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E141">
         <v>0.02</v>
@@ -4309,24 +4309,24 @@
         <v>33</v>
       </c>
       <c r="H141">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 09:21:06</v>
+        <v>2023-10-17 23:21:22</v>
       </c>
       <c r="B142">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C142">
-        <v>35.54</v>
+        <v>36.65</v>
       </c>
       <c r="D142">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E142">
         <v>0.02</v>
@@ -4338,24 +4338,24 @@
         <v>33</v>
       </c>
       <c r="H142">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="I142">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 14:30:37</v>
+        <v>2023-10-18 04:30:43</v>
       </c>
       <c r="B143">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="C143">
-        <v>35.54</v>
+        <v>36.01</v>
       </c>
       <c r="D143">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E143">
         <v>0.02</v>
@@ -4367,24 +4367,24 @@
         <v>33</v>
       </c>
       <c r="H143">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="I143">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 19:40:37</v>
+        <v>2023-10-18 09:40:41</v>
       </c>
       <c r="B144">
-        <v>29</v>
+        <v>26.9</v>
       </c>
       <c r="C144">
-        <v>35.54</v>
+        <v>36.01</v>
       </c>
       <c r="D144">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E144">
         <v>0.02</v>
@@ -4396,24 +4396,24 @@
         <v>33</v>
       </c>
       <c r="H144">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="I144">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 00:50:35</v>
+        <v>2023-10-18 14:50:41</v>
       </c>
       <c r="B145">
-        <v>27</v>
+        <v>26.97</v>
       </c>
       <c r="C145">
-        <v>35.54</v>
+        <v>36.01</v>
       </c>
       <c r="D145">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E145">
         <v>0.02</v>
@@ -4425,24 +4425,24 @@
         <v>33</v>
       </c>
       <c r="H145">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="I145">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 06:00:35</v>
+        <v>2023-10-18 20:00:41</v>
       </c>
       <c r="B146">
-        <v>29</v>
+        <v>27.79</v>
       </c>
       <c r="C146">
-        <v>35.22</v>
+        <v>36.01</v>
       </c>
       <c r="D146">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E146">
         <v>0.02</v>
@@ -4454,39 +4454,10 @@
         <v>33</v>
       </c>
       <c r="H146">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="I146">
         <v>15</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>2023-10-16 11:10:35</v>
-      </c>
-      <c r="B147">
-        <v>29</v>
-      </c>
-      <c r="C147">
-        <v>35.22</v>
-      </c>
-      <c r="D147">
-        <v>150</v>
-      </c>
-      <c r="E147">
-        <v>0.02</v>
-      </c>
-      <c r="F147">
-        <v>0.01</v>
-      </c>
-      <c r="G147">
-        <v>33</v>
-      </c>
-      <c r="H147">
-        <v>25.4</v>
-      </c>
-      <c r="I147">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4469,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I147"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I146"/>
   </ignoredErrors>
 </worksheet>
 </file>